--- a/files/job_time.xlsx
+++ b/files/job_time.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">time</t>
   </si>
   <si>
-    <t xml:space="preserve">pembe</t>
+    <t xml:space="preserve">kırmızı</t>
   </si>
   <si>
     <t xml:space="preserve">sarı</t>
@@ -162,7 +162,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/files/job_time.xlsx
+++ b/files/job_time.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">jobs</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">yeşil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siyah</t>
   </si>
   <si>
     <t xml:space="preserve">kare</t>
@@ -162,7 +159,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -216,7 +213,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -227,7 +224,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -238,19 +235,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>9</v>
-      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>

--- a/files/job_time.xlsx
+++ b/files/job_time.xlsx
@@ -28,22 +28,22 @@
     <t xml:space="preserve">time</t>
   </si>
   <si>
-    <t xml:space="preserve">kırmızı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yeşil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">üçgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daire</t>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circle</t>
   </si>
 </sst>
 </file>
@@ -126,12 +126,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -158,93 +154,93 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
